--- a/Data/Goudie2006RockStrength.xlsx
+++ b/Data/Goudie2006RockStrength.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wwu2-my.sharepoint.com/personal/pinkeb_wwu_edu/Documents/Thesis/ThesisCode/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{5785AC4A-9EC9-9843-8BA3-341E8E705CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A01D2268-E8E2-D440-B0D8-9BD5EDFA5479}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{5785AC4A-9EC9-9843-8BA3-341E8E705CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECF00CED-F6B2-6D4F-BA5A-9F746E9A3E9C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{C0B85E43-D143-7147-BA95-7FBA1A449C19}"/>
   </bookViews>
@@ -714,12 +714,6 @@
     <t xml:space="preserve">Serpentine </t>
   </si>
   <si>
-    <t>Goudie TABLE 1 - Schmidt Hammer values for selected rock types</t>
-  </si>
-  <si>
-    <t>Goudie TABLE 2 Approximate strength classification of rock (modified from Selby 1993 table 5.3, Schmidt Hammer N-Type R'</t>
-  </si>
-  <si>
     <t>Plutonic</t>
   </si>
   <si>
@@ -727,6 +721,12 @@
   </si>
   <si>
     <t xml:space="preserve">crumbles under sharp blows with geological pick point, can be cut with pocket knife </t>
+  </si>
+  <si>
+    <t>Goudie 2006 The Schmidt Hammer in Geomorphological Research TABLE 1 - Schmidt Hammer values for selected rock types</t>
+  </si>
+  <si>
+    <t>Goudie 2006 The Schmidt Hammer in Geomorphological Research TABLE 2 - Approximate strength classification of rock (modified from Selby 1993 table 5.3, Schmidt Hammer N-Type R')</t>
   </si>
 </sst>
 </file>
@@ -806,9 +806,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -846,7 +846,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -952,7 +952,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1094,7 +1094,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A663A773-9FD5-D74B-8D7D-6325260386E5}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1115,7 +1115,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2614,7 +2614,7 @@
         <v>187</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D85" s="3">
         <v>50.5</v>
@@ -2634,7 +2634,7 @@
         <v>190</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D86" s="3">
         <v>73.400000000000006</v>
@@ -2651,7 +2651,7 @@
         <v>191</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D87" s="3">
         <v>55.5</v>
@@ -2671,7 +2671,7 @@
         <v>126</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D88" s="3">
         <v>66.5</v>
@@ -2688,7 +2688,7 @@
         <v>193</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D89" s="3">
         <v>60.25</v>
@@ -2708,7 +2708,7 @@
         <v>195</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D90" s="3">
         <v>59.4</v>
@@ -2725,7 +2725,7 @@
         <v>24</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D91" s="3">
         <v>59.1</v>
@@ -2745,7 +2745,7 @@
         <v>46</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D92" s="3">
         <v>27.6</v>
@@ -2765,7 +2765,7 @@
         <v>24</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D93" s="3">
         <v>63.9</v>
@@ -2785,7 +2785,7 @@
         <v>46</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D94" s="3">
         <v>46.25</v>
@@ -2805,7 +2805,7 @@
         <v>201</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D95" s="3">
         <v>67.3</v>
@@ -2822,7 +2822,7 @@
         <v>202</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D96" s="3">
         <v>42.4</v>
@@ -2839,7 +2839,7 @@
         <v>205</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D97" s="3">
         <v>64</v>
@@ -2856,7 +2856,7 @@
         <v>131</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D98" s="3">
         <v>62</v>
@@ -2873,7 +2873,7 @@
         <v>24</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D99" s="3">
         <v>52.4</v>
@@ -2890,7 +2890,7 @@
         <v>46</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D100" s="3">
         <v>57.75</v>
@@ -2910,7 +2910,7 @@
         <v>24</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D101" s="3">
         <v>57.5</v>
@@ -2930,7 +2930,7 @@
         <v>18</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D102" s="3">
         <v>65</v>
@@ -2947,7 +2947,7 @@
         <v>131</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D103" s="3">
         <v>64</v>
@@ -2964,7 +2964,7 @@
         <v>202</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D104" s="3">
         <v>32.200000000000003</v>
@@ -2981,7 +2981,7 @@
         <v>171</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D105" s="3">
         <v>47.7</v>
@@ -2998,7 +2998,7 @@
         <v>126</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D106" s="3">
         <v>67.900000000000006</v>
@@ -3015,7 +3015,7 @@
         <v>181</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D107" s="3">
         <v>61.1</v>
@@ -3032,7 +3032,7 @@
         <v>24</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D108" s="3">
         <v>60.15</v>
@@ -3052,7 +3052,7 @@
         <v>24</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D109" s="3">
         <v>43.75</v>
@@ -3086,7 +3086,7 @@
         <v>24</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D111" s="3">
         <v>62</v>
@@ -3125,7 +3125,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3135,7 +3135,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3163,7 +3163,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C3">
         <v>10</v>
